--- a/iifd_judgment_cards_task_item_templates.xlsx
+++ b/iifd_judgment_cards_task_item_templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/red/Documents/GitHub/iifd-judgment-cards-french/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6256BEAA-B523-7040-89CB-B39AF0854095}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0059AC0C-7FBF-5144-89F8-124683739DD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29940" yWindow="720" windowWidth="24460" windowHeight="18540" activeTab="1" xr2:uid="{5FD661D1-94D7-7B43-9C52-59526989F8CE}"/>
   </bookViews>
@@ -12527,8 +12527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03355A5F-FB37-7946-B085-089685680113}">
   <dimension ref="A1:AB265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12760,71 +12760,68 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="X4" s="3" t="s">
+      <c r="T4" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="X4" s="8" t="s">
         <v>294</v>
       </c>
     </row>
@@ -13536,75 +13533,74 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="X15" s="3" t="s">
+      <c r="T15" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="X15" s="8" t="s">
         <v>294</v>
       </c>
     </row>
@@ -13814,73 +13810,71 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="X19" s="3" t="s">
+      <c r="T19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="X19" s="8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -14244,73 +14238,71 @@
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="9">
         <v>1</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="X25" s="3" t="s">
+      <c r="T25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="W25" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="X25" s="8" t="s">
         <v>296</v>
       </c>
     </row>
@@ -15023,67 +15015,67 @@
       </c>
     </row>
     <row r="36" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="9">
         <v>1</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="Q36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="R36" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="S36" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="X36" s="3" t="s">
+      <c r="T36" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="V36" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="W36" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="X36" s="8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -15378,73 +15370,73 @@
       </c>
     </row>
     <row r="41" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="7">
         <v>1</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="Q41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="R41" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="S41" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="T41" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="X41" s="3" t="s">
+      <c r="T41" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="U41" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="V41" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="X41" s="8" t="s">
         <v>296</v>
       </c>
     </row>
@@ -22499,70 +22491,70 @@
       </c>
     </row>
     <row r="141" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="7">
         <v>6</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F141" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G141" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="H141" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="I141" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="J141" s="1" t="s">
+      <c r="J141" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K141" s="10" t="s">
+      <c r="K141" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="L141" s="1" t="s">
+      <c r="L141" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="M141" s="1" t="s">
+      <c r="M141" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="N141" s="1" t="s">
+      <c r="N141" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="Q141" s="2" t="s">
+      <c r="Q141" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R141" s="1" t="s">
+      <c r="R141" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="S141" s="1" t="s">
+      <c r="S141" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="T141" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="U141" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="V141" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="W141" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="X141" s="3" t="s">
+      <c r="T141" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="U141" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="V141" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="W141" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="X141" s="8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -22647,7 +22639,7 @@
       <c r="D143" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="7" t="s">
         <v>662</v>
       </c>
       <c r="F143" s="1" t="s">
@@ -22665,7 +22657,7 @@
       <c r="J143" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K143" s="10" t="s">
+      <c r="K143" s="7" t="s">
         <v>663</v>
       </c>
       <c r="L143" s="1" t="s">
@@ -22705,144 +22697,144 @@
       </c>
     </row>
     <row r="144" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="9">
         <v>6</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E144" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F144" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="G144" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="H144" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="I144" s="1" t="s">
+      <c r="I144" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="J144" s="1" t="s">
+      <c r="J144" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K144" s="10" t="s">
+      <c r="K144" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="L144" s="1" t="s">
+      <c r="L144" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="M144" s="1" t="s">
+      <c r="M144" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="N144" s="1" t="s">
+      <c r="N144" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="O144" s="1" t="s">
+      <c r="O144" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P144" s="1" t="s">
+      <c r="P144" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="Q144" s="1" t="s">
+      <c r="Q144" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R144" s="1" t="s">
+      <c r="R144" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="S144" s="1" t="s">
+      <c r="S144" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="T144" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U144" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="V144" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="W144" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="X144" s="3" t="s">
+      <c r="T144" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="U144" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="V144" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="W144" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="X144" s="8" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="145" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="9">
         <v>6</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E145" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G145" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H145" s="1" t="s">
+      <c r="H145" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I145" s="1" t="s">
+      <c r="I145" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="J145" s="1" t="s">
+      <c r="J145" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K145" s="10" t="s">
+      <c r="K145" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="L145" s="1" t="s">
+      <c r="L145" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M145" s="1" t="s">
+      <c r="M145" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="N145" s="1" t="s">
+      <c r="N145" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="Q145" s="1" t="s">
+      <c r="Q145" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R145" s="1" t="s">
+      <c r="R145" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="S145" s="1" t="s">
+      <c r="S145" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="T145" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="U145" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="V145" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="W145" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="X145" s="3" t="s">
+      <c r="T145" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="U145" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="V145" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="W145" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="X145" s="8" t="s">
         <v>295</v>
       </c>
     </row>
@@ -22985,73 +22977,71 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
+    <row r="148" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="7">
         <v>6</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F148" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G148" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="H148" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I148" s="1" t="s">
+      <c r="I148" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="J148" s="1" t="s">
+      <c r="J148" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K148" s="10" t="s">
+      <c r="K148" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="L148" s="1" t="s">
+      <c r="L148" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="M148" s="1" t="s">
+      <c r="M148" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="N148" s="1" t="s">
+      <c r="N148" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="O148" s="7"/>
-      <c r="P148" s="7"/>
-      <c r="Q148" s="1" t="s">
+      <c r="Q148" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R148" s="1" t="s">
+      <c r="R148" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="S148" s="1" t="s">
+      <c r="S148" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="T148" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="U148" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="V148" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="W148" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="X148" s="3" t="s">
+      <c r="T148" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="U148" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="V148" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="W148" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="X148" s="8" t="s">
         <v>295</v>
       </c>
     </row>
@@ -23125,360 +23115,355 @@
         <v>296</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
+    <row r="150" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="9">
         <v>6</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G150" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="H150" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="I150" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="J150" s="1" t="s">
+      <c r="J150" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K150" s="10" t="s">
+      <c r="K150" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="L150" s="1" t="s">
+      <c r="L150" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M150" s="1" t="s">
+      <c r="M150" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="N150" s="1" t="s">
+      <c r="N150" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="O150" s="1" t="s">
+      <c r="O150" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P150" s="1" t="s">
+      <c r="P150" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Q150" s="1" t="s">
+      <c r="Q150" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R150" s="1" t="s">
+      <c r="R150" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="S150" s="1" t="s">
+      <c r="S150" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="T150" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U150" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="V150" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="W150" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="X150" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
+      <c r="T150" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="U150" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="V150" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="W150" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="X150" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="7">
         <v>6</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F151" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G151" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="H151" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="I151" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="J151" s="1" t="s">
+      <c r="J151" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K151" s="10" t="s">
+      <c r="K151" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="L151" s="1" t="s">
+      <c r="L151" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M151" s="1" t="s">
+      <c r="M151" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="N151" s="1" t="s">
+      <c r="N151" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="O151" s="1" t="s">
+      <c r="O151" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P151" s="1" t="s">
+      <c r="P151" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="Q151" s="1" t="s">
+      <c r="Q151" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R151" s="1" t="s">
+      <c r="R151" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="S151" s="1" t="s">
+      <c r="S151" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="T151" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="U151" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="V151" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="W151" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="X151" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
+      <c r="T151" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="U151" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="V151" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="W151" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X151" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="7">
         <v>6</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G152" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="H152" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="I152" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="J152" s="1" t="s">
+      <c r="J152" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K152" s="10" t="s">
+      <c r="K152" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="L152" s="1" t="s">
+      <c r="L152" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="M152" s="1" t="s">
+      <c r="M152" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="N152" s="7"/>
-      <c r="O152" s="7"/>
-      <c r="P152" s="7"/>
-      <c r="Q152" s="2" t="s">
+      <c r="Q152" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R152" s="1" t="s">
+      <c r="R152" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="S152" s="1" t="s">
+      <c r="S152" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="T152" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="U152" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="V152" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="W152" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="X152" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+      <c r="T152" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="U152" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="V152" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="W152" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X152" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="9">
         <v>6</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F153" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G153" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="H153" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I153" s="1" t="s">
+      <c r="I153" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="J153" s="1" t="s">
+      <c r="J153" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K153" s="10" t="s">
+      <c r="K153" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="L153" s="1" t="s">
+      <c r="L153" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="M153" s="1" t="s">
+      <c r="M153" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="N153" s="1" t="s">
+      <c r="N153" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="O153" s="7"/>
-      <c r="P153" s="7"/>
-      <c r="Q153" s="1" t="s">
+      <c r="Q153" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R153" s="1" t="s">
+      <c r="R153" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="S153" s="1" t="s">
+      <c r="S153" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="T153" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U153" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="V153" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="W153" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="X153" s="3" t="s">
+      <c r="T153" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="U153" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="V153" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="W153" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X153" s="8" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="154" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="9">
         <v>6</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F154" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G154" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="H154" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="I154" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J154" s="1" t="s">
+      <c r="J154" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K154" s="10" t="s">
+      <c r="K154" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="L154" s="1" t="s">
+      <c r="L154" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="M154" s="1" t="s">
+      <c r="M154" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="N154" s="1" t="s">
+      <c r="N154" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="O154" s="1" t="s">
+      <c r="O154" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="Q154" s="1" t="s">
+      <c r="Q154" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R154" s="1" t="s">
+      <c r="R154" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="S154" s="1" t="s">
+      <c r="S154" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="T154" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="U154" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="V154" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="W154" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="X154" s="3" t="s">
+      <c r="T154" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="U154" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="V154" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="W154" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="X154" s="8" t="s">
         <v>294</v>
       </c>
     </row>
@@ -23555,70 +23540,70 @@
       </c>
     </row>
     <row r="156" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="9">
         <v>6</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F156" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G156" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H156" s="1" t="s">
+      <c r="H156" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="I156" s="1" t="s">
+      <c r="I156" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="J156" s="1" t="s">
+      <c r="J156" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K156" s="10" t="s">
+      <c r="K156" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="L156" s="1" t="s">
+      <c r="L156" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="M156" s="1" t="s">
+      <c r="M156" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="N156" s="1" t="s">
+      <c r="N156" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="Q156" s="1" t="s">
+      <c r="Q156" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R156" s="1" t="s">
+      <c r="R156" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="S156" s="1" t="s">
+      <c r="S156" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="T156" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="U156" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="V156" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="W156" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="X156" s="3" t="s">
+      <c r="T156" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="U156" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="V156" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="W156" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="X156" s="8" t="s">
         <v>296</v>
       </c>
     </row>
@@ -23765,70 +23750,70 @@
       </c>
     </row>
     <row r="159" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="9">
         <v>6</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F159" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G159" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H159" s="1" t="s">
+      <c r="H159" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="I159" s="1" t="s">
+      <c r="I159" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="J159" s="1" t="s">
+      <c r="J159" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K159" s="10" t="s">
+      <c r="K159" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="L159" s="1" t="s">
+      <c r="L159" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="M159" s="1" t="s">
+      <c r="M159" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="N159" s="1" t="s">
+      <c r="N159" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="Q159" s="2" t="s">
+      <c r="Q159" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R159" s="1" t="s">
+      <c r="R159" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="S159" s="1" t="s">
+      <c r="S159" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="T159" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="U159" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="V159" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="W159" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="X159" s="3" t="s">
+      <c r="T159" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="U159" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="V159" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="W159" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="X159" s="8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -24187,75 +24172,74 @@
         <v>295</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+    <row r="165" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="7">
         <v>6</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="F165" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="G165" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H165" s="1" t="s">
+      <c r="H165" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="I165" s="1" t="s">
+      <c r="I165" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="J165" s="1" t="s">
+      <c r="J165" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K165" s="10" t="s">
+      <c r="K165" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="L165" s="1" t="s">
+      <c r="L165" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="M165" s="1" t="s">
+      <c r="M165" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="N165" s="1" t="s">
+      <c r="N165" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="O165" s="1" t="s">
+      <c r="O165" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P165" s="7"/>
-      <c r="Q165" s="1" t="s">
+      <c r="Q165" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R165" s="1" t="s">
+      <c r="R165" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="S165" s="1" t="s">
+      <c r="S165" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="T165" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="U165" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="V165" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="W165" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="X165" s="3" t="s">
+      <c r="T165" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="U165" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="V165" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="W165" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="X165" s="8" t="s">
         <v>295</v>
       </c>
     </row>
@@ -24403,77 +24387,77 @@
         <v>293</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+    <row r="168" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="9">
         <v>6</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G168" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="H168" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="I168" s="1" t="s">
+      <c r="I168" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="J168" s="1" t="s">
+      <c r="J168" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K168" s="10" t="s">
+      <c r="K168" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="L168" s="1" t="s">
+      <c r="L168" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M168" s="1" t="s">
+      <c r="M168" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="N168" s="1" t="s">
+      <c r="N168" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="O168" s="1" t="s">
+      <c r="O168" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P168" s="1" t="s">
+      <c r="P168" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="Q168" s="1" t="s">
+      <c r="Q168" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R168" s="1" t="s">
+      <c r="R168" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="S168" s="1" t="s">
+      <c r="S168" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="T168" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="U168" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="V168" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="W168" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="X168" s="3" t="s">
+      <c r="T168" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="U168" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="V168" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="W168" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="X168" s="8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -24825,71 +24809,68 @@
         <v>293</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+    <row r="174" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="9">
         <v>6</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E174" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="F174" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="G174" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="H174" s="1" t="s">
+      <c r="H174" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="I174" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="J174" s="1" t="s">
+      <c r="J174" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K174" s="10" t="s">
+      <c r="K174" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="L174" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M174" s="1" t="s">
+      <c r="M174" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="N174" s="7"/>
-      <c r="O174" s="7"/>
-      <c r="P174" s="7"/>
-      <c r="Q174" s="2" t="s">
+      <c r="Q174" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R174" s="1" t="s">
+      <c r="R174" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="S174" s="1" t="s">
+      <c r="S174" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="T174" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="U174" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="V174" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="W174" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="X174" s="3" t="s">
+      <c r="T174" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="U174" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="V174" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="W174" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="X174" s="8" t="s">
         <v>294</v>
       </c>
     </row>
@@ -25187,7 +25168,7 @@
       <c r="D179" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E179" s="7" t="s">
         <v>730</v>
       </c>
       <c r="F179" s="1" t="s">
@@ -25205,7 +25186,7 @@
       <c r="J179" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K179" s="10" t="s">
+      <c r="K179" s="7" t="s">
         <v>731</v>
       </c>
       <c r="L179" s="1" t="s">
@@ -25319,143 +25300,139 @@
         <v>295</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181" s="9">
         <v>6</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="F181" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="G181" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H181" s="1" t="s">
+      <c r="H181" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="I181" s="1" t="s">
+      <c r="I181" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="J181" s="1" t="s">
+      <c r="J181" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K181" s="10" t="s">
+      <c r="K181" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="L181" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="M181" s="1" t="s">
+      <c r="M181" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="N181" s="7"/>
-      <c r="O181" s="7"/>
-      <c r="P181" s="7"/>
-      <c r="Q181" s="2" t="s">
+      <c r="Q181" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R181" s="1" t="s">
+      <c r="R181" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="S181" s="1" t="s">
+      <c r="S181" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="T181" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="U181" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="V181" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="W181" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="X181" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
+      <c r="T181" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="U181" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="V181" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="W181" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="X181" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182" s="7">
         <v>6</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E182" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F182" s="1" t="s">
+      <c r="F182" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="G182" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H182" s="1" t="s">
+      <c r="H182" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="I182" s="1" t="s">
+      <c r="I182" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="J182" s="1" t="s">
+      <c r="J182" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K182" s="10" t="s">
+      <c r="K182" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="L182" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="M182" s="1" t="s">
+      <c r="M182" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="N182" s="1" t="s">
+      <c r="N182" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="O182" s="1" t="s">
+      <c r="O182" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P182" s="7"/>
-      <c r="Q182" s="1" t="s">
+      <c r="Q182" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R182" s="1" t="s">
+      <c r="R182" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="S182" s="1" t="s">
+      <c r="S182" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="T182" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="U182" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="V182" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="W182" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="X182" s="3" t="s">
+      <c r="T182" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="U182" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="V182" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="W182" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="X182" s="8" t="s">
         <v>295</v>
       </c>
     </row>
@@ -25527,77 +25504,77 @@
         <v>296</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
+    <row r="184" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184" s="7">
         <v>6</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E184" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="F184" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G184" s="1" t="s">
+      <c r="G184" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H184" s="1" t="s">
+      <c r="H184" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I184" s="1" t="s">
+      <c r="I184" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J184" s="1" t="s">
+      <c r="J184" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K184" s="10" t="s">
+      <c r="K184" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="L184" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M184" s="1" t="s">
+      <c r="M184" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="N184" s="1" t="s">
+      <c r="N184" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="O184" s="1" t="s">
+      <c r="O184" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P184" s="1" t="s">
+      <c r="P184" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="Q184" s="1" t="s">
+      <c r="Q184" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R184" s="1" t="s">
+      <c r="R184" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="S184" s="1" t="s">
+      <c r="S184" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="T184" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="U184" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="V184" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="W184" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="X184" s="3" t="s">
+      <c r="T184" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="U184" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="V184" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="W184" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="X184" s="8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -33234,7 +33211,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A2:XFD13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
